--- a/3d_performance mpi_omp.xlsx
+++ b/3d_performance mpi_omp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10674754_polimi_it/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VALERIA\shared-folder\Nbody\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A10111B7-7733-4CC1-BAD7-125C55F9F7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208443B9-CA57-4A62-A8B5-AA1A50D8350A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07CCAF64-59D6-416E-869F-6D7B51265D04}"/>
   </bookViews>
@@ -36,12 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>OMP</t>
   </si>
   <si>
     <t>MPI</t>
+  </si>
+  <si>
+    <t>CUDA</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -51,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,7 +181,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1086,7 +1098,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1837019407"/>
@@ -1144,7 +1156,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1837019407"/>
@@ -1183,7 +1195,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -1221,7 +1233,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1260,7 +1272,1350 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="10"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Foglio1!$J$1:$R$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>OMP</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>MPI</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CUDA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>OMP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MPI</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CUDA</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>OMP</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>MPI</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CUDA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$J$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D742-4CDF-822C-3292A1DD85A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Writing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="powder"/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Foglio1!$J$1:$R$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>OMP</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>MPI</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CUDA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>OMP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MPI</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CUDA</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>OMP</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>MPI</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CUDA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$J$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D742-4CDF-822C-3292A1DD85A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:shape val="box"/>
+        <c:axId val="1701499615"/>
+        <c:axId val="1701506687"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1701499615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701506687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1701506687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701499615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="10"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Foglio1!$J$1:$R$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>OMP</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>MPI</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CUDA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>OMP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MPI</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CUDA</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>OMP</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>MPI</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CUDA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$J$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B3A-41F5-B1BE-B2940DEDF296}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Writing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="powder"/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Foglio1!$J$1:$R$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>OMP</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>MPI</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CUDA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>OMP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MPI</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CUDA</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>OMP</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>MPI</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CUDA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$J$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B3A-41F5-B1BE-B2940DEDF296}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:shape val="box"/>
+        <c:axId val="1701499615"/>
+        <c:axId val="1701506687"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1701499615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701506687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1701506687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701499615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1311,6 +2666,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="291">
   <cs:axisTitle>
@@ -1857,20 +3292,972 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1895,11 +4282,85 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A2D81AB-F017-B60F-0F95-9A3EDE0A6A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>547077</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>6514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600417</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>173632</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB0AE33-A3E2-43AF-941E-410F65905B95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2195,23 +4656,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A155EF5-3289-4E46-99D1-61DD4EEF4B55}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2230,8 +4692,35 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1000</v>
       </c>
@@ -2250,8 +4739,35 @@
       <c r="G2">
         <v>3000</v>
       </c>
+      <c r="J2">
+        <v>1000</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <v>1000</v>
+      </c>
+      <c r="M2">
+        <v>2000</v>
+      </c>
+      <c r="N2">
+        <v>2000</v>
+      </c>
+      <c r="O2">
+        <v>2000</v>
+      </c>
+      <c r="P2">
+        <v>3000</v>
+      </c>
+      <c r="Q2">
+        <v>3000</v>
+      </c>
+      <c r="R2">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2273,8 +4789,38 @@
       <c r="G3" s="2">
         <v>110.274</v>
       </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4.26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="M3" s="2">
+        <v>16.89</v>
+      </c>
+      <c r="N3" s="2">
+        <v>15.27</v>
+      </c>
+      <c r="O3" s="2">
+        <v>5.13</v>
+      </c>
+      <c r="P3" s="2">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>35.15</v>
+      </c>
+      <c r="R3" s="2">
+        <v>11.37</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2296,8 +4842,38 @@
       <c r="G4" s="2">
         <v>87.228099999999998</v>
       </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="L4" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R4" s="2">
+        <v>47.09</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2319,8 +4895,38 @@
       <c r="G5" s="2">
         <v>54.952199999999998</v>
       </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3.92</v>
+      </c>
+      <c r="L5" s="2">
+        <v>14.19</v>
+      </c>
+      <c r="M5" s="2">
+        <v>17.14</v>
+      </c>
+      <c r="N5" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="O5" s="2">
+        <v>34.630000000000003</v>
+      </c>
+      <c r="P5" s="2">
+        <v>39.65</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="R5" s="2">
+        <v>58.46</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2343,7 +4949,7 @@
         <v>43.291800000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -2366,7 +4972,7 @@
         <v>40.726100000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -2389,7 +4995,7 @@
         <v>37.440899999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -2406,7 +5012,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -2423,7 +5029,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16</v>
       </c>
@@ -2440,7 +5046,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>18</v>
       </c>
@@ -2457,7 +5063,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20</v>
       </c>
@@ -2474,7 +5080,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>22</v>
       </c>
@@ -2491,7 +5097,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>24</v>
       </c>
@@ -2508,7 +5114,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2516,8 +5122,11 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="18" spans="7:7">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="1"/>
+    </row>
+    <row r="41" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2527,9 +5136,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2748,22 +5360,43 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49FFCED4-597D-4232-98D5-F82A81B0F00C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC39615-7DFD-407B-9CCD-10F8706D6B8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25CA625B-F50E-4C21-87C7-C4C09BE480A3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25CA625B-F50E-4C21-87C7-C4C09BE480A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="faf11b50-3d7c-47ac-9091-266bb85b49db"/>
+    <ds:schemaRef ds:uri="95313815-7a78-4cd4-813d-932d284318cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC39615-7DFD-407B-9CCD-10F8706D6B8E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49FFCED4-597D-4232-98D5-F82A81B0F00C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>